--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48AE506-428F-F246-8DB0-E594F8317E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF052C5D-960A-3B47-94E7-599D5E865C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="160">
   <si>
     <t>№</t>
   </si>
@@ -660,7 +660,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -843,11 +843,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -863,11 +883,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1183,16 +1213,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AA26F2-A649-9345-8698-F18018E0D736}">
   <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="162" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.83203125" style="4"/>
+    <col min="3" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1208,8 +1241,12 @@
       <c r="D2" s="6">
         <v>45672</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="6">
+        <v>45679</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45684</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1228,8 +1265,12 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1248,8 +1289,12 @@
       <c r="D4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1268,8 +1313,12 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1288,8 +1337,12 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1308,8 +1361,12 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1328,8 +1385,12 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1348,8 +1409,12 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1368,8 +1433,12 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1388,8 +1457,12 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1408,8 +1481,12 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1428,8 +1505,12 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1448,8 +1529,12 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1468,8 +1553,12 @@
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1488,8 +1577,12 @@
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1508,8 +1601,12 @@
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1528,8 +1625,12 @@
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1550,6 +1651,17 @@
       <c r="C23" s="6">
         <v>45673</v>
       </c>
+      <c r="D23" s="6">
+        <v>45677</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45680</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
@@ -1561,6 +1673,17 @@
       <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
@@ -1572,6 +1695,17 @@
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -1583,6 +1717,17 @@
       <c r="C26" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -1594,6 +1739,17 @@
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -1605,6 +1761,17 @@
       <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -1616,6 +1783,17 @@
       <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -1627,6 +1805,17 @@
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -1638,6 +1827,17 @@
       <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -1649,8 +1849,19 @@
       <c r="C32" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -1660,8 +1871,19 @@
       <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>11</v>
       </c>
@@ -1671,8 +1893,19 @@
       <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>12</v>
       </c>
@@ -1682,8 +1915,19 @@
       <c r="C35" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>13</v>
       </c>
@@ -1693,9 +1937,590 @@
       <c r="C36" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D32:XFD37 C32:C36 A1:XFD21 A22:B22 D22:XFD22 C23:XFD31">
+  <conditionalFormatting sqref="A1:XFD21 A22:B22 D22:XFD22 C23:XFD31 C32:C36 D32:XFD37">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:XFD1048576">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C7634E-01C4-A44D-9A81-9E2D73111B54}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>13.01</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45677</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45678</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B26 B29">
     <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -1706,7 +2531,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -1722,392 +2547,852 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C7634E-01C4-A44D-9A81-9E2D73111B54}">
-  <dimension ref="A1:L29"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838BD1C4-4274-2244-B452-283353A5ADF7}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A17" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
-        <v>13.01</v>
-      </c>
-      <c r="D1" s="3"/>
+      <c r="C1" s="6">
+        <v>45671</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45685</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
+      <c r="B5" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
+      <c r="B7" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
+      <c r="B19" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45672</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45686</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="10" t="s">
-        <v>105</v>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>12</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>13</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>15</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>17</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>18</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B26 B29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+    <sortCondition ref="B2:B21"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:XFD43 A44 C44:XFD44 A45:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -2119,26 +3404,27 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838BD1C4-4274-2244-B452-283353A5ADF7}">
-  <dimension ref="A1:J45"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EA0B-B46D-1D4A-BFE5-F97D31298B5D}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,724 +3432,485 @@
         <v>1</v>
       </c>
       <c r="C1" s="6">
-        <v>45671</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+        <v>45672</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45675</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45679</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45680</v>
+      </c>
+      <c r="G1" s="6">
+        <v>45686</v>
+      </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>58</v>
+      <c r="B8" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
-        <v>45672</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>4</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>5</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>6</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>7</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>8</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>9</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>10</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>11</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>12</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>13</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>14</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>15</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>17</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>18</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>19</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="9" t="s">
-        <v>104</v>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
-    <sortCondition ref="B2:B21"/>
-  </sortState>
-  <conditionalFormatting sqref="A1:XFD43 A44 C44:XFD44 A45:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -2879,23 +3926,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EA0B-B46D-1D4A-BFE5-F97D31298B5D}">
-  <dimension ref="A1:K23"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298921C-6DFC-7444-A9FD-0D68714D6214}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2905,320 +3952,436 @@
       <c r="C1" s="6">
         <v>45672</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="6">
+        <v>45672</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45679</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -3237,381 +4400,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298921C-6DFC-7444-A9FD-0D68714D6214}">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="178" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6">
-        <v>45672</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF48DF63-7498-4C49-AD49-E38DE87BDB4D}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B20" sqref="B2:B20"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="4"/>
+    <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3624,7 +4426,9 @@
       <c r="C1" s="6">
         <v>45673</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="6">
+        <v>45680</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3641,7 +4445,9 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3658,7 +4464,9 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3675,7 +4483,9 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3692,7 +4502,9 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3709,7 +4521,9 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3726,7 +4540,9 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3743,7 +4559,9 @@
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3760,7 +4578,9 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3777,7 +4597,9 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3794,7 +4616,9 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3811,7 +4635,9 @@
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3828,7 +4654,9 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3845,7 +4673,9 @@
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3862,7 +4692,9 @@
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3879,7 +4711,9 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3896,7 +4730,9 @@
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3913,7 +4749,9 @@
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3930,7 +4768,9 @@
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3947,7 +4787,9 @@
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>

--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A2542-63B3-5E46-AD9A-1683A7BC6925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DFB228-8A99-0847-ADAE-269DEE1DF34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="СО-ЮП-24" sheetId="6" r:id="rId6"/>
     <sheet name="БИК-24" sheetId="7" r:id="rId7"/>
     <sheet name="БЭУ-22" sheetId="8" r:id="rId8"/>
+    <sheet name="ДП-24-05" sheetId="9" r:id="rId9"/>
+    <sheet name="ДС-24-06" sheetId="10" r:id="rId10"/>
+    <sheet name="ДП-24-06" sheetId="11" r:id="rId11"/>
+    <sheet name="ДП-24-07" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="280">
   <si>
     <t>№</t>
   </si>
@@ -708,13 +712,187 @@
   </si>
   <si>
     <t>Яркина Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Марохин Марк Вячеславович</t>
+  </si>
+  <si>
+    <t>Пинчук Максим Андреевич</t>
+  </si>
+  <si>
+    <t>Слесарчук Дмитрий Тимофеевич</t>
+  </si>
+  <si>
+    <t>Заболоцкая Анита Алексеевна</t>
+  </si>
+  <si>
+    <t>Маслов Константин Константинович</t>
+  </si>
+  <si>
+    <t>Варт Николай Алексеевич</t>
+  </si>
+  <si>
+    <t>Власов Ярослав Владимирович</t>
+  </si>
+  <si>
+    <t>Деменко Игорь Евгеньевич</t>
+  </si>
+  <si>
+    <t>Матвеенко Егор Дмитриевич</t>
+  </si>
+  <si>
+    <t>Мишагин Денис Вадимович</t>
+  </si>
+  <si>
+    <t>Новосельцева Полина Сергеевна</t>
+  </si>
+  <si>
+    <t>Очеретный Владислав Андреевич</t>
+  </si>
+  <si>
+    <t>Сазаев Никита Олегович</t>
+  </si>
+  <si>
+    <t>Синяков Сергей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Тарасов Максим Романович</t>
+  </si>
+  <si>
+    <t>Филиппов Владислав Григорьевич</t>
+  </si>
+  <si>
+    <t>Ходоров Тимур Валентинович</t>
+  </si>
+  <si>
+    <t>Юрмазов Кирилл Александрович</t>
+  </si>
+  <si>
+    <t>Захаров Станислав Александрович</t>
+  </si>
+  <si>
+    <t>ДС-24-06</t>
+  </si>
+  <si>
+    <t>ДП-24-05</t>
+  </si>
+  <si>
+    <t>ДП-24-06</t>
+  </si>
+  <si>
+    <t>Балаклицкий Олег Гаврилович</t>
+  </si>
+  <si>
+    <t>Белик Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Вечканова Эмилия Павловна</t>
+  </si>
+  <si>
+    <t>Галицкая Каролина Павловна</t>
+  </si>
+  <si>
+    <t>Иванов Виктор Александрович</t>
+  </si>
+  <si>
+    <t>Каширский Глеб Олегович</t>
+  </si>
+  <si>
+    <t>Колобов Олег Викторович</t>
+  </si>
+  <si>
+    <t>Кострицына Алёна Сергеевна</t>
+  </si>
+  <si>
+    <t>Луковников Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Мысив Виталина Владимировна</t>
+  </si>
+  <si>
+    <t>Плахута Владислав Викторович</t>
+  </si>
+  <si>
+    <t>Симанков Алексей Вадимович</t>
+  </si>
+  <si>
+    <t>Смирнов Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>Гапоненко</t>
+  </si>
+  <si>
+    <t>Тырышкин Ярослав Константинович</t>
+  </si>
+  <si>
+    <t>Федянин Максим Андреевич</t>
+  </si>
+  <si>
+    <t>Гридчин Владислав Григорьевич</t>
+  </si>
+  <si>
+    <t>Иноуэ Леонид-Наоки</t>
+  </si>
+  <si>
+    <t>ДП-24-07</t>
+  </si>
+  <si>
+    <t>Жиляков Максим Николаевич</t>
+  </si>
+  <si>
+    <t>Коваль Леонид Андреевич</t>
+  </si>
+  <si>
+    <t>Сабат Николай Иванович</t>
+  </si>
+  <si>
+    <t>Степанов Алексей Львович</t>
+  </si>
+  <si>
+    <t>Шитикова Арина Павловна</t>
+  </si>
+  <si>
+    <t>Ягодова Полина Владимировна</t>
+  </si>
+  <si>
+    <t>ДЕ ЁН БОК</t>
+  </si>
+  <si>
+    <t>Зайков Никита Максимович</t>
+  </si>
+  <si>
+    <t>Калашникова Дарья Леонидовна</t>
+  </si>
+  <si>
+    <t>Кенешбеков Даниил Кенешбекович</t>
+  </si>
+  <si>
+    <t>Кукаров Кирилл Антонович</t>
+  </si>
+  <si>
+    <t>Латогузов Степан Сергеевич</t>
+  </si>
+  <si>
+    <t>Мангер Вероника Андреевна</t>
+  </si>
+  <si>
+    <t>Миленханов Илья Анатольевич</t>
+  </si>
+  <si>
+    <t>Сергеев Илья Александрович</t>
+  </si>
+  <si>
+    <t>Слукин Иван Алексеевич</t>
+  </si>
+  <si>
+    <t>Панов Дмитрий Александрович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -747,6 +925,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -834,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -855,14 +1039,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -895,16 +1144,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -920,6 +1159,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1446,10 +1695,10 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,8 +1707,8 @@
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="4"/>
+    <col min="8" max="9" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1492,7 +1741,9 @@
       <c r="H2" s="6">
         <v>45698</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="6">
+        <v>45700</v>
+      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1520,7 +1771,9 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1548,7 +1801,9 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1576,7 +1831,9 @@
       <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1604,7 +1861,9 @@
       <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1632,7 +1891,9 @@
       <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1660,7 +1921,9 @@
       <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1688,7 +1951,9 @@
       <c r="H9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1716,7 +1981,9 @@
       <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1744,7 +2011,9 @@
       <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1772,7 +2041,9 @@
       <c r="H12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1800,7 +2071,9 @@
       <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1828,7 +2101,9 @@
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1856,7 +2131,9 @@
       <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1884,7 +2161,9 @@
       <c r="H16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1912,7 +2191,9 @@
       <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1940,7 +2221,9 @@
       <c r="H18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1978,7 +2261,9 @@
       <c r="H23" s="6">
         <v>45694</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="6">
+        <v>45701</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2006,7 +2291,9 @@
       <c r="H24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2034,7 +2321,9 @@
       <c r="H25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2062,7 +2351,9 @@
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2090,7 +2381,9 @@
       <c r="H27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2118,7 +2411,9 @@
       <c r="H28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2146,7 +2441,9 @@
       <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2174,7 +2471,9 @@
       <c r="H30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2202,7 +2501,9 @@
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2230,7 +2531,9 @@
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2258,7 +2561,9 @@
       <c r="H33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2286,7 +2591,9 @@
       <c r="H34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2314,7 +2621,9 @@
       <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2342,30 +2651,1167 @@
       <c r="H36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J36" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD20 A21 C21:XFD21 A22:B22 D22:XFD22 C23:XFD31 C32:C36 D32:XFD37">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1C149-61D6-BA4C-85DD-B19993932FE1}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7DBDD-68AD-8D44-B606-30A633915157}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45703</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
+    <sortCondition ref="B3:B20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A18EEC-3E0A-D549-B97F-97C9D91EEA23}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45703</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B19">
+    <sortCondition ref="B3:B19"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3184,13 +4630,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:XFD27 A2:F27 A28:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3203,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838BD1C4-4274-2244-B452-283353A5ADF7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="142" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3229,7 +4675,9 @@
       <c r="D1" s="6">
         <v>45685</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="6">
+        <v>45700</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3249,7 +4697,9 @@
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3269,7 +4719,9 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3289,7 +4741,9 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3309,7 +4763,9 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3329,7 +4785,9 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -3349,7 +4807,9 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -3369,7 +4829,9 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -3389,7 +4851,9 @@
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -3409,7 +4873,9 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3429,7 +4895,9 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3449,7 +4917,9 @@
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3469,7 +4939,9 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3489,7 +4961,9 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3509,7 +4983,9 @@
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3529,7 +5005,9 @@
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3549,7 +5027,9 @@
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -3569,7 +5049,9 @@
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -3589,7 +5071,9 @@
       <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3609,7 +5093,9 @@
       <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3629,7 +5115,9 @@
       <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3728,7 +5216,7 @@
       <c r="A27" s="1">
         <v>4</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -4086,6 +5574,1552 @@
     <sortCondition ref="B2:B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD43 A44 C44:XFD44 A45:XFD1048576">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EA0B-B46D-1D4A-BFE5-F97D31298B5D}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45672</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45675</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45679</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45680</v>
+      </c>
+      <c r="G1" s="6">
+        <v>45686</v>
+      </c>
+      <c r="H1" s="6">
+        <v>45693</v>
+      </c>
+      <c r="I1" s="6">
+        <v>45694</v>
+      </c>
+      <c r="J1" s="6">
+        <v>45699</v>
+      </c>
+      <c r="K1" s="6">
+        <v>45700</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3">
+        <f>ROUND((COUNTIF(C2:K2,"+")+COUNTIF(C2:K2,"="))*1.12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L20" si="0">ROUND((COUNTIF(C3:K3,"+")+COUNTIF(C3:K3,"="))*1.12,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="3">
+        <f>ROUND((COUNTIF(C10:K10,"+")+COUNTIF(C10:K10,"="))*1.12,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298921C-6DFC-7444-A9FD-0D68714D6214}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45672</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45672</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45679</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45686</v>
+      </c>
+      <c r="G1" s="6">
+        <v>45686</v>
+      </c>
+      <c r="H1" s="6">
+        <v>45693</v>
+      </c>
+      <c r="I1" s="6">
+        <v>45700</v>
+      </c>
+      <c r="J1" s="6">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -4101,1316 +7135,461 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EA0B-B46D-1D4A-BFE5-F97D31298B5D}">
-  <dimension ref="A1:M23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF48DF63-7498-4C49-AD49-E38DE87BDB4D}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6">
-        <v>45672</v>
-      </c>
-      <c r="D1" s="6">
-        <v>45675</v>
-      </c>
-      <c r="E1" s="6">
-        <v>45679</v>
-      </c>
-      <c r="F1" s="6">
-        <v>45680</v>
-      </c>
-      <c r="G1" s="6">
-        <v>45686</v>
-      </c>
-      <c r="H1" s="6">
-        <v>45693</v>
-      </c>
-      <c r="I1" s="6">
-        <v>45694</v>
-      </c>
-      <c r="J1" s="6">
-        <v>45699</v>
-      </c>
-      <c r="K1" s="6">
-        <v>45700</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
-        <f>ROUND((COUNTIF(C2:K2,"+")+COUNTIF(C2:K2,"="))*1.12,0)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L20" si="0">ROUND((COUNTIF(C3:K3,"+")+COUNTIF(C3:K3,"="))*1.12,0)</f>
-        <v>9</v>
-      </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298921C-6DFC-7444-A9FD-0D68714D6214}">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
-        <v>45672</v>
-      </c>
-      <c r="D1" s="6">
-        <v>45672</v>
-      </c>
-      <c r="E1" s="6">
-        <v>45679</v>
-      </c>
-      <c r="F1" s="6">
-        <v>45686</v>
-      </c>
-      <c r="G1" s="6">
-        <v>45686</v>
-      </c>
-      <c r="H1" s="6">
-        <v>45693</v>
-      </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="C2" s="6">
+        <v>45673</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45680</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45687</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45694</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45701</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="B12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="B13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="B14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="B15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="B16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="B17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="B18" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>123</v>
+      <c r="B19" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
@@ -5427,17 +7606,15 @@
       <c r="G19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>124</v>
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
@@ -5454,40 +7631,36 @@
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>125</v>
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="J1:XFD21 A2:I21 A22:XFD1048576">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -5503,512 +7676,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF48DF63-7498-4C49-AD49-E38DE87BDB4D}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="171" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45673</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45680</v>
-      </c>
-      <c r="E2" s="6">
-        <v>45687</v>
-      </c>
-      <c r="F2" s="6">
-        <v>45694</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J1:XFD21 A2:I21 A22:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3729BD-F75F-DA40-A394-F4274E14071C}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6500,10 +8173,10 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -6675,25 +8348,25 @@
     <sortCondition ref="B3:B34"/>
   </sortState>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"-"</formula>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"="</formula>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6705,8 +8378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627D0236-F9FB-8A40-A8E7-2764DC09C5B1}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7093,4 +8766,349 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C3BA65-1DA3-D742-AE85-09580D9484E5}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DFB228-8A99-0847-ADAE-269DEE1DF34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2F63FB-8AB9-584C-B343-B809FDA6921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="280">
   <si>
     <t>№</t>
   </si>
@@ -1018,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1044,14 +1044,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2658,24 +2751,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD20 A21 C21:XFD21 A22:B22 D22:XFD22 C23:XFD31 C32:C36 D32:XFD37">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD1048576">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2688,14 +2781,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1C149-61D6-BA4C-85DD-B19993932FE1}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2710,7 +2804,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="17">
+        <v>45703</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2720,13 +2816,15 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2736,13 +2834,15 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2752,13 +2852,15 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2768,13 +2870,15 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2784,13 +2888,15 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2800,13 +2906,15 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="B8" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2816,13 +2924,15 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2832,13 +2942,15 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2848,13 +2960,15 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2864,13 +2978,15 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2880,13 +2996,15 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2896,13 +3014,15 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2912,13 +3032,15 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2928,13 +3050,15 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2944,13 +3068,15 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2960,13 +3086,15 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2976,13 +3104,15 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="B19" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2992,13 +3122,15 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3008,13 +3140,15 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3024,6 +3158,17 @@
       <c r="J21" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3804,13 +3949,13 @@
     <sortCondition ref="B3:B19"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4630,13 +4775,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:XFD27 A2:F27 A28:XFD1048576">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5574,13 +5719,13 @@
     <sortCondition ref="B2:B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD43 A44 C44:XFD44 A45:XFD1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6413,13 +6558,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7120,13 +7265,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7661,13 +7806,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:XFD21 A2:I21 A22:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8348,24 +8493,24 @@
     <sortCondition ref="B3:B34"/>
   </sortState>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8772,14 +8917,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C3BA65-1DA3-D742-AE85-09580D9484E5}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="C21" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -8794,7 +8940,9 @@
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17">
+        <v>45703</v>
+      </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -8807,10 +8955,12 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="B3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -8823,10 +8973,12 @@
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="15"/>
+      <c r="B4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -8840,9 +8992,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="15"/>
+        <v>229</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -8858,7 +9012,9 @@
       <c r="B6" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -8872,9 +9028,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -8887,10 +9045,12 @@
       <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -8904,9 +9064,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="15"/>
+        <v>226</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -8920,9 +9082,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="15"/>
+        <v>230</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -8936,9 +9100,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="15"/>
+        <v>231</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -8952,9 +9118,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>232</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -8968,9 +9136,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="15"/>
+        <v>233</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -8983,10 +9153,12 @@
       <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -9002,7 +9174,9 @@
       <c r="B15" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -9018,7 +9192,9 @@
       <c r="B16" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -9032,9 +9208,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>224</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -9047,10 +9225,12 @@
       <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="15"/>
+      <c r="B18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -9063,10 +9243,12 @@
       <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="15"/>
+      <c r="B19" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -9080,9 +9262,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -9096,9 +9280,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="15"/>
+        <v>239</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -9108,6 +9294,20 @@
       <c r="J21" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B21">
+    <sortCondition ref="B21"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2F63FB-8AB9-584C-B343-B809FDA6921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2CB48-9F52-604E-8891-6534C3173662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="280">
   <si>
     <t>№</t>
   </si>
@@ -1054,14 +1054,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="39">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1082,6 +1082,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1137,36 +1147,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1192,16 +1172,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1787,11 +1757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AA26F2-A649-9345-8698-F18018E0D736}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1800,8 +1770,7 @@
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="4"/>
+    <col min="8" max="10" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1837,7 +1806,9 @@
       <c r="I2" s="6">
         <v>45700</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="6">
+        <v>45707</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1867,7 +1838,9 @@
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1897,7 +1870,9 @@
       <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1927,7 +1902,9 @@
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1957,7 +1934,9 @@
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1987,7 +1966,9 @@
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2017,7 +1998,9 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2047,7 +2030,9 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2077,7 +2062,9 @@
       <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2107,7 +2094,9 @@
       <c r="I11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2137,7 +2126,9 @@
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2167,7 +2158,9 @@
       <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2197,7 +2190,9 @@
       <c r="I14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2227,7 +2222,9 @@
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2257,7 +2254,9 @@
       <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -2287,7 +2286,9 @@
       <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2317,7 +2318,9 @@
       <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
@@ -2357,7 +2360,9 @@
       <c r="I23" s="6">
         <v>45701</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="6">
+        <v>45705</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
@@ -2387,7 +2392,9 @@
       <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
@@ -2417,7 +2424,9 @@
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -2447,7 +2456,9 @@
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -2477,7 +2488,9 @@
       <c r="I27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -2507,7 +2520,9 @@
       <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -2537,7 +2552,9 @@
       <c r="I29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -2567,7 +2584,9 @@
       <c r="I30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -2597,7 +2616,9 @@
       <c r="I31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -2627,7 +2648,9 @@
       <c r="I32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -2657,7 +2680,9 @@
       <c r="I33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -2687,7 +2712,9 @@
       <c r="I34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -2717,7 +2744,9 @@
       <c r="I35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -2747,28 +2776,30 @@
       <c r="I36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD20 A21 C21:XFD21 A22:B22 D22:XFD22 C23:XFD31 C32:C36 D32:XFD37">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD1048576">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2781,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1C149-61D6-BA4C-85DD-B19993932FE1}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3159,13 +3190,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3949,13 +3980,13 @@
     <sortCondition ref="B3:B19"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3969,7 +4000,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3979,16 +4010,16 @@
     <col min="3" max="3" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="4"/>
+    <col min="9" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4016,9 +4047,14 @@
       <c r="I2" s="6">
         <v>45698</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="6">
+        <v>45705</v>
+      </c>
+      <c r="K2" s="6">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4046,9 +4082,14 @@
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4076,9 +4117,14 @@
       <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4106,9 +4152,14 @@
       <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4136,9 +4187,14 @@
       <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4166,9 +4222,14 @@
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4196,9 +4257,14 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4226,9 +4292,14 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4256,9 +4327,14 @@
       <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4286,9 +4362,14 @@
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4316,9 +4397,14 @@
       <c r="I12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4346,9 +4432,14 @@
       <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4376,9 +4467,14 @@
       <c r="I14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4406,9 +4502,14 @@
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4436,9 +4537,14 @@
       <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4466,9 +4572,14 @@
       <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4496,9 +4607,14 @@
       <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4526,9 +4642,14 @@
       <c r="I19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4556,9 +4677,14 @@
       <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4586,9 +4712,14 @@
       <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4616,9 +4747,14 @@
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4646,9 +4782,14 @@
       <c r="I23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4676,9 +4817,14 @@
       <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4706,9 +4852,14 @@
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4736,9 +4887,14 @@
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4766,22 +4922,27 @@
       <c r="I27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:XFD27 A2:F27 A28:XFD1048576">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,13 +5880,13 @@
     <sortCondition ref="B2:B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD43 A44 C44:XFD44 A45:XFD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6558,13 +6719,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7265,13 +7426,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7806,13 +7967,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:XFD21 A2:I21 A22:XFD1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7825,16 +7986,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3729BD-F75F-DA40-A394-F4274E14071C}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="10.83203125" style="4"/>
+    <col min="3" max="4" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -7852,7 +8013,9 @@
       <c r="C2" s="6">
         <v>45698</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6">
+        <v>45705</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7871,7 +8034,9 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -7890,7 +8055,9 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -7909,7 +8076,9 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -7928,7 +8097,9 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -7947,7 +8118,9 @@
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -7966,7 +8139,9 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -7985,7 +8160,9 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8004,7 +8181,9 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8023,7 +8202,9 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8042,7 +8223,9 @@
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -8061,7 +8244,9 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -8080,7 +8265,9 @@
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -8099,7 +8286,9 @@
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -8118,7 +8307,9 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -8137,7 +8328,9 @@
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -8156,7 +8349,9 @@
       <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -8175,7 +8370,9 @@
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -8194,7 +8391,9 @@
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -8213,7 +8412,9 @@
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -8232,7 +8433,9 @@
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -8251,7 +8454,9 @@
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -8270,7 +8475,9 @@
       <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -8289,7 +8496,9 @@
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -8308,7 +8517,9 @@
       <c r="C26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -8327,7 +8538,9 @@
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -8346,7 +8559,9 @@
       <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8365,7 +8580,9 @@
       <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -8384,7 +8601,9 @@
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -8403,7 +8622,9 @@
       <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -8422,7 +8643,9 @@
       <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -8441,7 +8664,9 @@
       <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -8460,7 +8685,9 @@
       <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -8479,7 +8706,9 @@
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -8493,24 +8722,24 @@
     <sortCondition ref="B3:B34"/>
   </sortState>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8524,15 +8753,15 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" style="4"/>
+    <col min="3" max="4" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -8550,7 +8779,9 @@
       <c r="C2" s="6">
         <v>45699</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6">
+        <v>45706</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8566,7 +8797,9 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -8582,7 +8815,9 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -8598,7 +8833,9 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -8614,7 +8851,9 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -8630,7 +8869,9 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -8646,7 +8887,9 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8662,7 +8905,9 @@
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8678,7 +8923,9 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8694,7 +8941,9 @@
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8710,7 +8959,9 @@
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -8726,7 +8977,9 @@
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -8742,7 +8995,9 @@
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -8758,7 +9013,9 @@
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -8774,7 +9031,9 @@
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -8790,7 +9049,9 @@
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -8806,7 +9067,9 @@
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -8822,7 +9085,9 @@
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -8838,7 +9103,9 @@
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -8854,7 +9121,9 @@
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -8870,7 +9139,9 @@
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -8886,7 +9157,9 @@
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -8902,14 +9175,25 @@
       <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9298,13 +9582,13 @@
     <sortCondition ref="B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>

--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2CB48-9F52-604E-8891-6534C3173662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A10006B-8843-484A-ADD0-FC2A41EA1EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="1600" yWindow="2300" windowWidth="25600" windowHeight="13900" activeTab="11" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="280">
   <si>
     <t>№</t>
   </si>
@@ -892,7 +892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -934,6 +934,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -943,7 +949,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1014,11 +1020,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1050,11 +1069,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1077,6 +1109,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1087,31 +1129,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1755,13 +1777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AA26F2-A649-9345-8698-F18018E0D736}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1771,6 +1793,7 @@
     <col min="3" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2258,7 +2281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2290,7 +2313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2322,17 +2345,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2363,8 +2386,14 @@
       <c r="J23" s="6">
         <v>45705</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="19">
+        <v>45708</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>1</v>
       </c>
@@ -2395,8 +2424,14 @@
       <c r="J24" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2</v>
       </c>
@@ -2427,8 +2462,14 @@
       <c r="J25" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>3</v>
       </c>
@@ -2459,8 +2500,14 @@
       <c r="J26" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>4</v>
       </c>
@@ -2491,8 +2538,14 @@
       <c r="J27" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>5</v>
       </c>
@@ -2523,8 +2576,14 @@
       <c r="J28" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>6</v>
       </c>
@@ -2555,8 +2614,14 @@
       <c r="J29" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>7</v>
       </c>
@@ -2587,8 +2652,14 @@
       <c r="J30" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>8</v>
       </c>
@@ -2619,8 +2690,14 @@
       <c r="J31" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>9</v>
       </c>
@@ -2651,8 +2728,14 @@
       <c r="J32" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -2683,8 +2766,14 @@
       <c r="J33" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>11</v>
       </c>
@@ -2715,8 +2804,14 @@
       <c r="J34" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>12</v>
       </c>
@@ -2747,8 +2842,14 @@
       <c r="J35" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>13</v>
       </c>
@@ -2779,27 +2880,33 @@
       <c r="J36" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD20 A21 C21:XFD21 A22:B22 D22:XFD22 C23:XFD31 C32:C36 D32:XFD37">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD1048576">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3190,13 +3297,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3208,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7DBDD-68AD-8D44-B606-30A633915157}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3599,15 +3706,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A18EEC-3E0A-D549-B97F-97C9D91EEA23}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3625,9 +3732,11 @@
       <c r="C2" s="6">
         <v>45703</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="23">
+        <v>45710</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3645,12 +3754,14 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="22"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -3663,14 +3774,16 @@
         <v>263</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="22"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3685,12 +3798,14 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="22"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3705,12 +3820,14 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3723,14 +3840,16 @@
         <v>272</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="22"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3743,14 +3862,16 @@
         <v>264</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="22"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3765,12 +3886,14 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="22"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3783,14 +3906,16 @@
         <v>274</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="22"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3803,14 +3928,16 @@
         <v>275</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3825,12 +3952,14 @@
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3843,14 +3972,16 @@
         <v>279</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3863,14 +3994,16 @@
         <v>265</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="22"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3883,14 +4016,16 @@
         <v>277</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="22"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3903,14 +4038,16 @@
         <v>278</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3925,12 +4062,14 @@
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3945,12 +4084,14 @@
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="22"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3963,14 +4104,16 @@
         <v>268</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3979,15 +4122,15 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B19">
     <sortCondition ref="B3:B19"/>
   </sortState>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>"-"</formula>
+  <conditionalFormatting sqref="A1:XFD2 A20:XFD1048576 A3:D19 F3:XFD19">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"="</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4000,7 +4143,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4936,13 +5079,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:XFD27 A2:F27 A28:XFD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5880,13 +6023,13 @@
     <sortCondition ref="B2:B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD43 A44 C44:XFD44 A45:XFD1048576">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5897,10 +6040,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EA0B-B46D-1D4A-BFE5-F97D31298B5D}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5911,9 +6057,11 @@
     <col min="8" max="9" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5950,9 +6098,18 @@
       <c r="L1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M1" s="6">
+        <v>45707</v>
+      </c>
+      <c r="N1" s="6">
+        <v>45708</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5990,9 +6147,18 @@
         <f>ROUND((COUNTIF(C2:K2,"+")+COUNTIF(C2:K2,"="))*1.12,0)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6030,9 +6196,18 @@
         <f t="shared" ref="L3:L20" si="0">ROUND((COUNTIF(C3:K3,"+")+COUNTIF(C3:K3,"="))*1.12,0)</f>
         <v>9</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6070,9 +6245,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6110,9 +6294,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6150,9 +6343,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6190,9 +6392,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6230,9 +6441,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6270,9 +6490,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6310,9 +6539,18 @@
         <f>ROUND((COUNTIF(C10:K10,"+")+COUNTIF(C10:K10,"="))*1.12,0)</f>
         <v>9</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6350,9 +6588,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6390,9 +6637,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6430,9 +6686,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6470,9 +6735,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6510,9 +6784,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6550,9 +6833,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6590,9 +6882,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6630,9 +6931,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6670,9 +6980,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6710,22 +7029,31 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6736,10 +7064,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298921C-6DFC-7444-A9FD-0D68714D6214}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6748,11 +7076,11 @@
     <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="4"/>
+    <col min="9" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6783,8 +7111,14 @@
       <c r="J1" s="6">
         <v>45700</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6">
+        <v>45707</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6815,8 +7149,14 @@
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6847,8 +7187,14 @@
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6879,8 +7225,14 @@
       <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6911,8 +7263,14 @@
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6943,8 +7301,14 @@
       <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6975,8 +7339,14 @@
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7007,8 +7377,14 @@
       <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7039,8 +7415,14 @@
       <c r="J9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7071,8 +7453,14 @@
       <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7103,8 +7491,14 @@
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7135,8 +7529,14 @@
       <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7167,8 +7567,14 @@
       <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7199,8 +7605,14 @@
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7231,8 +7643,14 @@
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7263,8 +7681,14 @@
       <c r="J16" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7295,8 +7719,14 @@
       <c r="J17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7327,8 +7757,14 @@
       <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7359,8 +7795,14 @@
       <c r="J19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7391,8 +7833,14 @@
       <c r="J20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7423,16 +7871,22 @@
       <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7446,7 +7900,10 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7456,8 +7913,8 @@
     <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="4"/>
+    <col min="7" max="8" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -7487,7 +7944,9 @@
       <c r="G2" s="6">
         <v>45701</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="6">
+        <v>45708</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -7512,7 +7971,9 @@
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -7537,7 +7998,9 @@
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7562,7 +8025,9 @@
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7587,7 +8052,9 @@
       <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -7612,7 +8079,9 @@
       <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -7637,7 +8106,9 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -7662,7 +8133,9 @@
       <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -7687,7 +8160,9 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -7712,7 +8187,9 @@
       <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -7737,7 +8214,9 @@
       <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -7762,7 +8241,9 @@
       <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -7787,7 +8268,9 @@
       <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -7812,7 +8295,9 @@
       <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -7837,7 +8322,9 @@
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -7862,7 +8349,9 @@
       <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -7887,7 +8376,9 @@
       <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -7912,7 +8403,9 @@
       <c r="G19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -7937,7 +8430,9 @@
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -7954,7 +8449,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>18</v>
@@ -7962,18 +8457,20 @@
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:XFD21 A2:I21 A22:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8722,24 +9219,24 @@
     <sortCondition ref="B3:B34"/>
   </sortState>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9185,11 +9682,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9202,7 +9699,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="C21" sqref="C2:C21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9582,14 +10079,14 @@
     <sortCondition ref="B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"-"</formula>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"="</formula>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A10006B-8843-484A-ADD0-FC2A41EA1EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CA714-06B3-1D46-B251-B7E954BA7C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2300" windowWidth="25600" windowHeight="13900" activeTab="11" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="280">
   <si>
     <t>№</t>
   </si>
@@ -1086,7 +1086,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1779,11 +1809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AA26F2-A649-9345-8698-F18018E0D736}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1792,16 +1822,15 @@
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,8 +1861,11 @@
       <c r="J2" s="6">
         <v>45707</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="6">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1864,8 +1896,11 @@
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1896,8 +1931,11 @@
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1928,8 +1966,11 @@
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1960,8 +2001,11 @@
       <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1992,8 +2036,11 @@
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2024,8 +2071,11 @@
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2056,8 +2106,11 @@
       <c r="J9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2088,8 +2141,11 @@
       <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2120,8 +2176,11 @@
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2152,8 +2211,11 @@
       <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2184,8 +2246,11 @@
       <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2216,8 +2281,11 @@
       <c r="J14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2248,8 +2316,11 @@
       <c r="J15" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2278,6 +2349,9 @@
         <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2312,6 +2386,9 @@
       <c r="J17" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="K17" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2344,6 +2421,9 @@
       <c r="J18" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
@@ -2889,24 +2969,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD20 A21 C21:XFD21 A22:B22 D22:XFD22 C23:XFD31 C32:C36 D32:XFD37">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD1048576">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2920,14 +3000,14 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2945,7 +3025,9 @@
       <c r="C2" s="17">
         <v>45703</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="17">
+        <v>45710</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2963,7 +3045,9 @@
       <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2981,7 +3065,9 @@
       <c r="C4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2999,7 +3085,9 @@
       <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3017,7 +3105,9 @@
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3035,7 +3125,9 @@
       <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3053,7 +3145,9 @@
       <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3071,7 +3165,9 @@
       <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3089,7 +3185,9 @@
       <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3107,7 +3205,9 @@
       <c r="C11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3125,7 +3225,9 @@
       <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3143,7 +3245,9 @@
       <c r="C13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3161,7 +3265,9 @@
       <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3179,7 +3285,9 @@
       <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3197,7 +3305,9 @@
       <c r="C16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3215,7 +3325,9 @@
       <c r="C17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3233,7 +3345,9 @@
       <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3251,7 +3365,9 @@
       <c r="C19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3269,7 +3385,9 @@
       <c r="C20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3287,7 +3405,9 @@
       <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3296,7 +3416,446 @@
       <c r="J21" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C21">
+  <conditionalFormatting sqref="C2:D21">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7DBDD-68AD-8D44-B606-30A633915157}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView zoomScale="156" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45703</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45710</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
+    <sortCondition ref="B3:B20"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -3308,396 +3867,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7DBDD-68AD-8D44-B606-30A633915157}">
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45703</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
-    <sortCondition ref="B3:B20"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
@@ -3706,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A18EEC-3E0A-D549-B97F-97C9D91EEA23}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4122,7 +4291,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B19">
     <sortCondition ref="B3:B19"/>
   </sortState>
-  <conditionalFormatting sqref="A1:XFD2 A20:XFD1048576 A3:D19 F3:XFD19">
+  <conditionalFormatting sqref="A1:XFD2 A3:D19 F3:XFD19 A20:XFD1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
@@ -4140,10 +4309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C7634E-01C4-A44D-9A81-9E2D73111B54}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4153,16 +4322,15 @@
     <col min="3" max="3" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="4"/>
+    <col min="9" max="13" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4196,8 +4364,14 @@
       <c r="K2" s="6">
         <v>45706</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="6">
+        <v>45712</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4231,8 +4405,14 @@
       <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4266,8 +4446,14 @@
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4301,8 +4487,14 @@
       <c r="K5" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4336,8 +4528,14 @@
       <c r="K6" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4371,8 +4569,14 @@
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4406,8 +4610,14 @@
       <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4441,8 +4651,14 @@
       <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4476,8 +4692,14 @@
       <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4511,8 +4733,14 @@
       <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4546,8 +4774,14 @@
       <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4581,8 +4815,14 @@
       <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4616,8 +4856,14 @@
       <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4651,8 +4897,14 @@
       <c r="K15" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4686,8 +4938,14 @@
       <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4721,8 +4979,14 @@
       <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4756,8 +5020,14 @@
       <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4791,8 +5061,14 @@
       <c r="K19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4826,8 +5102,14 @@
       <c r="K20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4861,8 +5143,14 @@
       <c r="K21" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4896,8 +5184,14 @@
       <c r="K22" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4931,8 +5225,14 @@
       <c r="K23" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4966,8 +5266,14 @@
       <c r="K24" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5001,8 +5307,14 @@
       <c r="K25" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5036,8 +5348,14 @@
       <c r="K26" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5071,21 +5389,27 @@
       <c r="K27" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:XFD27 A2:F27 A28:XFD1048576">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6023,13 +6347,13 @@
     <sortCondition ref="B2:B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD43 A44 C44:XFD44 A45:XFD1048576">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6042,11 +6366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EA0B-B46D-1D4A-BFE5-F97D31298B5D}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6057,8 +6381,8 @@
     <col min="8" max="9" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" style="4"/>
+    <col min="13" max="15" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -6104,7 +6428,9 @@
       <c r="N1" s="6">
         <v>45708</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="6">
+        <v>45713</v>
+      </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -6153,7 +6479,9 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -6202,7 +6530,9 @@
       <c r="N3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -6251,7 +6581,9 @@
       <c r="N4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -6300,7 +6632,9 @@
       <c r="N5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -6349,7 +6683,9 @@
       <c r="N6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -6398,7 +6734,9 @@
       <c r="N7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -6447,7 +6785,9 @@
       <c r="N8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -6496,7 +6836,9 @@
       <c r="N9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -6545,7 +6887,9 @@
       <c r="N10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -6594,7 +6938,9 @@
       <c r="N11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -6643,7 +6989,9 @@
       <c r="N12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -6692,7 +7040,9 @@
       <c r="N13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -6741,7 +7091,9 @@
       <c r="N14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -6790,7 +7142,9 @@
       <c r="N15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -6839,7 +7193,9 @@
       <c r="N16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -6888,7 +7244,9 @@
       <c r="N17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -6937,7 +7295,9 @@
       <c r="N18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="3"/>
+      <c r="O18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -6986,7 +7346,9 @@
       <c r="N19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -7035,7 +7397,9 @@
       <c r="N20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -7047,13 +7411,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7880,13 +8244,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8464,13 +8828,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:XFD21 A2:I21 A22:XFD1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8483,16 +8847,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3729BD-F75F-DA40-A394-F4274E14071C}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A10" zoomScale="131" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="10.83203125" style="4"/>
+    <col min="3" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -8513,7 +8877,9 @@
       <c r="D2" s="6">
         <v>45705</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6">
+        <v>45712</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -8534,7 +8900,9 @@
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -8555,7 +8923,9 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -8576,7 +8946,9 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -8597,7 +8969,9 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -8618,7 +8992,9 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -8639,7 +9015,9 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -8660,7 +9038,9 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -8681,7 +9061,9 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -8702,7 +9084,9 @@
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8723,7 +9107,9 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -8744,7 +9130,9 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -8765,7 +9153,9 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -8786,7 +9176,9 @@
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -8807,7 +9199,9 @@
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -8828,7 +9222,9 @@
       <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -8849,7 +9245,9 @@
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -8870,7 +9268,9 @@
       <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -8891,7 +9291,9 @@
       <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -8912,7 +9314,9 @@
       <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -8933,7 +9337,9 @@
       <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -8954,7 +9360,9 @@
       <c r="D23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -8975,7 +9383,9 @@
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -8996,7 +9406,9 @@
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -9017,7 +9429,9 @@
       <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -9038,7 +9452,9 @@
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -9059,7 +9475,9 @@
       <c r="D28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -9080,7 +9498,9 @@
       <c r="D29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -9101,7 +9521,9 @@
       <c r="D30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -9122,7 +9544,9 @@
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -9143,7 +9567,9 @@
       <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -9164,7 +9590,9 @@
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -9185,7 +9613,9 @@
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -9206,7 +9636,9 @@
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -9219,24 +9651,24 @@
     <sortCondition ref="B3:B34"/>
   </sortState>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9682,10 +10114,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9698,15 +10130,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C3BA65-1DA3-D742-AE85-09580D9484E5}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -9724,7 +10156,9 @@
       <c r="C2" s="17">
         <v>45703</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17">
+        <v>45710</v>
+      </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -9742,7 +10176,9 @@
       <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -9760,7 +10196,9 @@
       <c r="C4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -9778,7 +10216,9 @@
       <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -9796,7 +10236,9 @@
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -9814,7 +10256,9 @@
       <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -9832,7 +10276,9 @@
       <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -9850,7 +10296,9 @@
       <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -9868,7 +10316,9 @@
       <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -9886,7 +10336,9 @@
       <c r="C11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -9904,7 +10356,9 @@
       <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -9922,7 +10376,9 @@
       <c r="C13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -9940,7 +10396,9 @@
       <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -9958,7 +10416,9 @@
       <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -9976,7 +10436,9 @@
       <c r="C16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -9994,7 +10456,9 @@
       <c r="C17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -10012,7 +10476,9 @@
       <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -10030,7 +10496,9 @@
       <c r="C19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -10048,7 +10516,9 @@
       <c r="C20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -10066,7 +10536,9 @@
       <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -10079,13 +10551,13 @@
     <sortCondition ref="B21"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CA714-06B3-1D46-B251-B7E954BA7C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93C2B3-C813-AA4B-A83A-45E175A77694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="280">
   <si>
     <t>№</t>
   </si>
@@ -5422,8 +5422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838BD1C4-4274-2244-B452-283353A5ADF7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A12" zoomScale="142" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,8 +5431,8 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="4"/>
+    <col min="5" max="6" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,9 @@
       <c r="E23" s="6">
         <v>45699</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="6">
+        <v>45713</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -5935,7 +5937,9 @@
       <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -5957,7 +5961,9 @@
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -5979,7 +5985,9 @@
       <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -6001,7 +6009,9 @@
       <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -6023,7 +6033,9 @@
       <c r="E28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -6045,7 +6057,9 @@
       <c r="E29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6067,7 +6081,9 @@
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -6089,7 +6105,9 @@
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -6111,7 +6129,9 @@
       <c r="E32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -6133,7 +6153,9 @@
       <c r="E33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -6155,7 +6177,9 @@
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -6177,7 +6201,9 @@
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -6199,7 +6225,9 @@
       <c r="E36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -6221,7 +6249,9 @@
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -6243,7 +6273,9 @@
       <c r="E38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -6265,7 +6297,9 @@
       <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -6287,7 +6321,9 @@
       <c r="E40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -6309,7 +6345,9 @@
       <c r="E41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -6331,7 +6369,9 @@
       <c r="E42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -6366,11 +6406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EA0B-B46D-1D4A-BFE5-F97D31298B5D}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9681,16 +9721,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627D0236-F9FB-8A40-A8E7-2764DC09C5B1}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="4"/>
+    <col min="3" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -9711,7 +9751,9 @@
       <c r="D2" s="6">
         <v>45706</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6">
+        <v>45713</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9729,7 +9771,9 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -9747,7 +9791,9 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -9765,7 +9811,9 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -9783,7 +9831,9 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -9855,7 +9905,9 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -9873,7 +9925,9 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -9927,7 +9981,9 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -9981,7 +10037,9 @@
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -10035,7 +10093,9 @@
       <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -10089,7 +10149,9 @@
       <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>

--- a/grades25.xlsx
+++ b/grades25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/ВВГУ/GitHub/vvsu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93C2B3-C813-AA4B-A83A-45E175A77694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A68AF-C1F1-574E-BA08-236D3E614740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88B8D92F-FB7A-6344-9111-CF5B0A8ADE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="СО-РД-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="280">
   <si>
     <t>№</t>
   </si>
@@ -1807,13 +1807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AA26F2-A649-9345-8698-F18018E0D736}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,15 +1822,15 @@
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,8 +1864,15 @@
       <c r="K2" s="6">
         <v>45712</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="6">
+        <v>45714</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1899,8 +1906,15 @@
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1934,8 +1948,15 @@
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1969,8 +1990,15 @@
       <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2004,8 +2032,15 @@
       <c r="K6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2039,8 +2074,15 @@
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2074,8 +2116,15 @@
       <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2109,8 +2158,15 @@
       <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2144,8 +2200,15 @@
       <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2179,8 +2242,15 @@
       <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2214,8 +2284,15 @@
       <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2249,8 +2326,15 @@
       <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2284,8 +2368,15 @@
       <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2319,8 +2410,15 @@
       <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2354,8 +2452,15 @@
       <c r="K16" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2389,8 +2494,15 @@
       <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2424,18 +2536,25 @@
       <c r="K18" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2469,11 +2588,13 @@
       <c r="K23" s="19">
         <v>45708</v>
       </c>
-      <c r="L23" s="20"/>
+      <c r="L23" s="19">
+        <v>45715</v>
+      </c>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>1</v>
       </c>
@@ -2507,11 +2628,13 @@
       <c r="K24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="20"/>
+      <c r="L24" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2</v>
       </c>
@@ -2545,11 +2668,13 @@
       <c r="K25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="20"/>
+      <c r="L25" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>3</v>
       </c>
@@ -2583,11 +2708,13 @@
       <c r="K26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="20"/>
+      <c r="L26" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>4</v>
       </c>
@@ -2621,11 +2748,13 @@
       <c r="K27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="20"/>
+      <c r="L27" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>5</v>
       </c>
@@ -2659,11 +2788,13 @@
       <c r="K28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>6</v>
       </c>
@@ -2697,11 +2828,13 @@
       <c r="K29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="20"/>
+      <c r="L29" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>7</v>
       </c>
@@ -2735,11 +2868,13 @@
       <c r="K30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="20"/>
+      <c r="L30" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>8</v>
       </c>
@@ -2773,11 +2908,13 @@
       <c r="K31" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="20"/>
+      <c r="L31" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>9</v>
       </c>
@@ -2811,7 +2948,9 @@
       <c r="K32" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="20"/>
+      <c r="L32" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
     </row>
@@ -2849,7 +2988,9 @@
       <c r="K33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="20"/>
+      <c r="L33" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
     </row>
@@ -2887,7 +3028,9 @@
       <c r="K34" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="20"/>
+      <c r="L34" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
     </row>
@@ -2925,7 +3068,9 @@
       <c r="K35" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="20"/>
+      <c r="L35" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
     </row>
@@ -2963,7 +3108,9 @@
       <c r="K36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="20"/>
+      <c r="L36" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
@@ -5422,8 +5569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838BD1C4-4274-2244-B452-283353A5ADF7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="142" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5451,7 +5598,9 @@
       <c r="E1" s="6">
         <v>45700</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="6">
+        <v>45714</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -5473,7 +5622,9 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5495,7 +5646,9 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -5517,7 +5670,9 @@
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -5539,7 +5694,9 @@
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -5561,7 +5718,9 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5583,7 +5742,9 @@
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -5605,7 +5766,9 @@
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -5627,7 +5790,9 @@
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -5649,7 +5814,9 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5671,7 +5838,9 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -5693,7 +5862,9 @@
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -5715,7 +5886,9 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -5737,7 +5910,9 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -5759,7 +5934,9 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -5781,7 +5958,9 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -5803,7 +5982,9 @@
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -5825,7 +6006,9 @@
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -5847,7 +6030,9 @@
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -5869,7 +6054,9 @@
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -5891,7 +6078,9 @@
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -6407,10 +6596,10 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6421,8 +6610,8 @@
     <col min="8" max="9" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.83203125" style="4"/>
+    <col min="13" max="16" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -6471,7 +6660,9 @@
       <c r="O1" s="6">
         <v>45713</v>
       </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="6">
+        <v>45714</v>
+      </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
@@ -6522,7 +6713,9 @@
       <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
@@ -6573,7 +6766,9 @@
       <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
@@ -6624,7 +6819,9 @@
       <c r="O4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
@@ -6675,7 +6872,9 @@
       <c r="O5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
@@ -6726,7 +6925,9 @@
       <c r="O6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
@@ -6777,7 +6978,9 @@
       <c r="O7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
@@ -6828,7 +7031,9 @@
       <c r="O8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
@@ -6879,7 +7084,9 @@
       <c r="O9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
@@ -6930,7 +7137,9 @@
       <c r="O10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
@@ -6981,7 +7190,9 @@
       <c r="O11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
@@ -7032,7 +7243,9 @@
       <c r="O12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
@@ -7083,7 +7296,9 @@
       <c r="O13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
@@ -7134,7 +7349,9 @@
       <c r="O14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
@@ -7185,7 +7402,9 @@
       <c r="O15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
@@ -7236,7 +7455,9 @@
       <c r="O16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
@@ -7287,7 +7508,9 @@
       <c r="O17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
@@ -7338,7 +7561,9 @@
       <c r="O18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
@@ -7389,7 +7614,9 @@
       <c r="O19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
@@ -7440,7 +7667,9 @@
       <c r="O20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
@@ -7468,10 +7697,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298921C-6DFC-7444-A9FD-0D68714D6214}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7480,11 +7712,13 @@
     <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="4"/>
+    <col min="9" max="12" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7518,11 +7752,23 @@
       <c r="K1" s="6">
         <v>45707</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L1" s="6">
+        <v>45714</v>
+      </c>
+      <c r="M1" s="6">
+        <v>45714</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7556,11 +7802,24 @@
       <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3">
+        <f>ROUND((COUNTIF(C2:M2,"+")+COUNTIF(C2:K2,"="))*0.9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7594,11 +7853,24 @@
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N21" si="0">ROUND((COUNTIF(C3:M3,"+")+COUNTIF(C3:K3,"="))*0.9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7632,11 +7904,24 @@
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7670,11 +7955,24 @@
       <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7708,11 +8006,24 @@
       <c r="K6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7746,11 +8057,24 @@
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7784,11 +8108,24 @@
       <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7811,22 +8148,35 @@
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7860,11 +8210,24 @@
       <c r="K10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7898,11 +8261,24 @@
       <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7936,11 +8312,24 @@
       <c r="K12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7974,11 +8363,24 @@
       <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8012,11 +8414,24 @@
       <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8050,11 +8465,24 @@
       <c r="K15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8088,11 +8516,24 @@
       <c r="K16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8126,11 +8567,24 @@
       <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8164,11 +8618,24 @@
       <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8202,11 +8669,24 @@
       <c r="K19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8240,11 +8720,24 @@
       <c r="K20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8278,9 +8771,22 @@
       <c r="K21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -8304,10 +8810,10 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8317,8 +8823,8 @@
     <col min="3" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="4"/>
+    <col min="7" max="9" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -8351,7 +8857,9 @@
       <c r="H2" s="6">
         <v>45708</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="6">
+        <v>45715</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
@@ -8378,7 +8886,9 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
@@ -8405,7 +8915,9 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
@@ -8432,7 +8944,9 @@
       <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
@@ -8459,7 +8973,9 @@
       <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
@@ -8486,7 +9002,9 @@
       <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
@@ -8513,7 +9031,9 @@
       <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -8540,7 +9060,9 @@
       <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
@@ -8567,7 +9089,9 @@
       <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
@@ -8594,7 +9118,9 @@
       <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
@@ -8621,7 +9147,9 @@
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
@@ -8648,7 +9176,9 @@
       <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
@@ -8675,7 +9205,9 @@
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
@@ -8702,7 +9234,9 @@
       <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
@@ -8729,7 +9263,9 @@
       <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
@@ -8756,7 +9292,9 @@
       <c r="H17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
@@ -8783,7 +9321,9 @@
       <c r="H18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
@@ -8810,7 +9350,9 @@
       <c r="H19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
@@ -8837,7 +9379,9 @@
       <c r="H20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
@@ -8864,7 +9408,9 @@
       <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:XFD21 A2:I21 A22:XFD1048576">
@@ -9721,8 +10267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627D0236-F9FB-8A40-A8E7-2764DC09C5B1}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9851,7 +10397,9 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -9869,7 +10417,9 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -9887,7 +10437,9 @@
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -9945,7 +10497,9 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -9963,7 +10517,9 @@
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -10001,7 +10557,9 @@
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -10019,7 +10577,9 @@
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -10057,7 +10617,9 @@
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -10075,7 +10637,9 @@
       <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -10113,7 +10677,9 @@
       <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -10131,7 +10697,9 @@
       <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -10169,7 +10737,9 @@
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
